--- a/biology/Botanique/Midway_Plaisance/Midway_Plaisance.xlsx
+++ b/biology/Botanique/Midway_Plaisance/Midway_Plaisance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Midway Plaisance, également connu localement comme le Midway, est un parc situé dans le sud de la ville de Chicago, dans l'Illinois. S'étendant du Washington Park au Jackson Park, Midway Plaisance délimite les secteurs de Hyde Park et Woodlawn.
